--- a/biology/Botanique/Carl_Traugott_Beilschmied/Carl_Traugott_Beilschmied.xlsx
+++ b/biology/Botanique/Carl_Traugott_Beilschmied/Carl_Traugott_Beilschmied.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Traugott Beilschmied, né le 19 octobre 1793 à Langenöls et mort le 6 mai 1848 à Herrnstadt, est un pharmacien et botaniste prussien, connu pour ses recherches en phytogéographie. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant 1820, il s'est formé et a travaillé dans des pharmacies à Bytom, Wrocław et Berlin. Il a ensuite étudié à l'Université rhénane Frédéric-Guillaume de Bonn, où il est passé sous l'influence de Christian Gottfried Daniel Nees von Esenbeck. En 1822, il a commencé à travailler en tant qu'intérimaire dans une pharmacie à Oława, en devenant le directeur en 1826. En 1837, il reçut un doctorat honorifique de l'Université de Wrocław[1] et, l'année suivante, devint membre de la Académie Léopoldine[2]. 
-En tant que taxonomiste, il a décrit plusieurs sous-familles botaniques[3]. Le genre Beilschmiedia a été nommé en son honneur par Nees von Esenbeck[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant 1820, il s'est formé et a travaillé dans des pharmacies à Bytom, Wrocław et Berlin. Il a ensuite étudié à l'Université rhénane Frédéric-Guillaume de Bonn, où il est passé sous l'influence de Christian Gottfried Daniel Nees von Esenbeck. En 1822, il a commencé à travailler en tant qu'intérimaire dans une pharmacie à Oława, en devenant le directeur en 1826. En 1837, il reçut un doctorat honorifique de l'Université de Wrocław et, l'année suivante, devint membre de la Académie Léopoldine. 
+En tant que taxonomiste, il a décrit plusieurs sous-familles botaniques. Le genre Beilschmiedia a été nommé en son honneur par Nees von Esenbeck. 
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 1834, il publia une traduction allemande du Nixus plantarum de John Lindley, intitulée Nixus plantarum. Die Stämme des Gewächsreiches. Il existe d'autres travaux notables associés à Beilschmied : 
-Ueber einige bei pflanzengeographischen Vergleichungen zu berücksichtigende Punkte, dans Anwendung auf die Flora Schlesiens, 1829 – Sur certains points de comparaison phytogéographiques concernant la flore silésienne[5].
+Ueber einige bei pflanzengeographischen Vergleichungen zu berücksichtigende Punkte, dans Anwendung auf die Flora Schlesiens, 1829 – Sur certains points de comparaison phytogéographiques concernant la flore silésienne.
 Pflanzengeographie, nach Alexander von Humboldt's werke ueber die geographische Vertheilhung der Gewächse, 1831 – Plant geography, d'après les travaux d'Alexander von Humboldt sur le Vertheilhung géographique des plantes.
-Die geographischen und historischen verhältnisse der eichen- und der birken-familie en Italie (avec Joakim Frederik Schouw ), 1850 – Les conditions géographiques et historiques des familles du chêne et du bouleau en Italie[6].</t>
+Die geographischen und historischen verhältnisse der eichen- und der birken-familie en Italie (avec Joakim Frederik Schouw ), 1850 – Les conditions géographiques et historiques des familles du chêne et du bouleau en Italie.</t>
         </is>
       </c>
     </row>
